--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,13 +67,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -193,7 +193,7 @@
     <t>conmed_guardsman</t>
   </si>
   <si>
-    <t>Conmed Guardsman metal</t>
+    <t>ConMed Guardsman metal</t>
   </si>
   <si>
     <t>conmed_metal_propel</t>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>Stryker PLLA skrue</t>
+  </si>
+  <si>
+    <t>stryker_procinch</t>
+  </si>
+  <si>
+    <t>Stryker ProCinch</t>
   </si>
   <si>
     <t>stryker_titanium</t>
@@ -643,7 +649,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1015,18 +1021,26 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>117</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1056,10 +1070,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -1072,10 +1086,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-FiksationFemurDKRR.xlsx
+++ b/fhir/ValueSet-FiksationFemurDKRR.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
